--- a/inputs/conversion_data.xlsx
+++ b/inputs/conversion_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\TaikoNS2Converter\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BD64E3-4C8A-4E7B-8CCC-656FA4079474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762F82A5-4B9C-4187-9719-D80E9BC5934B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-101" yWindow="-101" windowWidth="25981" windowHeight="13977" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2034" yWindow="1752" windowWidth="19334" windowHeight="10040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>SONG_ID</t>
   </si>
@@ -79,13 +79,94 @@
     <t>dogma2</t>
   </si>
   <si>
-    <t>Central Dogma Pt.2</t>
-  </si>
-  <si>
-    <t>黒沢ダイスケ</t>
-  </si>
-  <si>
     <t>GENRE</t>
+  </si>
+  <si>
+    <t>kimznk</t>
+  </si>
+  <si>
+    <t>thusat</t>
+  </si>
+  <si>
+    <t>citrus</t>
+  </si>
+  <si>
+    <t>amatjk</t>
+  </si>
+  <si>
+    <t>seiga1</t>
+  </si>
+  <si>
+    <t>lapaz</t>
+  </si>
+  <si>
+    <t>moeyos</t>
+  </si>
+  <si>
+    <t>divdrv</t>
+  </si>
+  <si>
+    <t>ksrain</t>
+  </si>
+  <si>
+    <t>hi4kok</t>
+  </si>
+  <si>
+    <t>kobenm</t>
+  </si>
+  <si>
+    <t>dogma1</t>
+  </si>
+  <si>
+    <t>leciel</t>
+  </si>
+  <si>
+    <t>batimt</t>
+  </si>
+  <si>
+    <t>imskrm</t>
+  </si>
+  <si>
+    <t>godea3</t>
+  </si>
+  <si>
+    <t>asmajo</t>
+  </si>
+  <si>
+    <t>skohab</t>
+  </si>
+  <si>
+    <t>otomuh</t>
+  </si>
+  <si>
+    <t>megm3x</t>
+  </si>
+  <si>
+    <t>kfphon</t>
+  </si>
+  <si>
+    <t>shoujo</t>
+  </si>
+  <si>
+    <t>afterd</t>
+  </si>
+  <si>
+    <t>alones</t>
+  </si>
+  <si>
+    <t>1rin</t>
+  </si>
+  <si>
+    <t>bleach</t>
+  </si>
+  <si>
+    <t>jdgekk</t>
+  </si>
+  <si>
+    <t>giniro</t>
+  </si>
+  <si>
+    <t>stairw</t>
   </si>
 </sst>
 </file>
@@ -934,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A89AA7-337B-4B0E-947D-11A48156C344}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="12.1" x14ac:dyDescent="0.3"/>
@@ -952,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1008,28 +1089,152 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1">
-        <v>5</v>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/conversion_data.xlsx
+++ b/inputs/conversion_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\TaikoNS2Converter\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762F82A5-4B9C-4187-9719-D80E9BC5934B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F879A605-8E46-4FC3-93CB-0F4FA4369EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2034" yWindow="1752" windowWidth="19334" windowHeight="10040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3394" yWindow="3716" windowWidth="19334" windowHeight="10040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>SONG_ID</t>
   </si>
@@ -76,48 +76,60 @@
     <t>EASY_MAX_SCORE</t>
   </si>
   <si>
+    <t>GENRE</t>
+  </si>
+  <si>
+    <t>heros</t>
+  </si>
+  <si>
+    <t>metamt</t>
+  </si>
+  <si>
+    <t>kimakb</t>
+  </si>
+  <si>
+    <t>udtmgl</t>
+  </si>
+  <si>
+    <t>kimznk</t>
+  </si>
+  <si>
+    <t>thusat</t>
+  </si>
+  <si>
+    <t>citrus</t>
+  </si>
+  <si>
+    <t>amatjk</t>
+  </si>
+  <si>
+    <t>seiga1</t>
+  </si>
+  <si>
+    <t>lapaz</t>
+  </si>
+  <si>
+    <t>moeyos</t>
+  </si>
+  <si>
+    <t>divdrv</t>
+  </si>
+  <si>
+    <t>ksrain</t>
+  </si>
+  <si>
+    <t>hi4kok</t>
+  </si>
+  <si>
+    <t>kobenm</t>
+  </si>
+  <si>
+    <t>dogma1</t>
+  </si>
+  <si>
     <t>dogma2</t>
   </si>
   <si>
-    <t>GENRE</t>
-  </si>
-  <si>
-    <t>kimznk</t>
-  </si>
-  <si>
-    <t>thusat</t>
-  </si>
-  <si>
-    <t>citrus</t>
-  </si>
-  <si>
-    <t>amatjk</t>
-  </si>
-  <si>
-    <t>seiga1</t>
-  </si>
-  <si>
-    <t>lapaz</t>
-  </si>
-  <si>
-    <t>moeyos</t>
-  </si>
-  <si>
-    <t>divdrv</t>
-  </si>
-  <si>
-    <t>ksrain</t>
-  </si>
-  <si>
-    <t>hi4kok</t>
-  </si>
-  <si>
-    <t>kobenm</t>
-  </si>
-  <si>
-    <t>dogma1</t>
-  </si>
-  <si>
     <t>leciel</t>
   </si>
   <si>
@@ -152,6 +164,9 @@
   </si>
   <si>
     <t>alones</t>
+  </si>
+  <si>
+    <t>2night</t>
   </si>
   <si>
     <t>1rin</t>
@@ -1015,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A89AA7-337B-4B0E-947D-11A48156C344}">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="12.1" x14ac:dyDescent="0.3"/>
@@ -1033,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1089,152 +1104,177 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/conversion_data.xlsx
+++ b/inputs/conversion_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\TaikoNS2Converter\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F879A605-8E46-4FC3-93CB-0F4FA4369EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2FF0C6-F3AC-45F9-B17D-E4EAEE2B2092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3394" yWindow="3716" windowWidth="19334" windowHeight="10040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7442" yWindow="2850" windowWidth="19334" windowHeight="10040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>SONG_ID</t>
   </si>
@@ -79,109 +79,40 @@
     <t>GENRE</t>
   </si>
   <si>
-    <t>heros</t>
-  </si>
-  <si>
-    <t>metamt</t>
-  </si>
-  <si>
-    <t>kimakb</t>
-  </si>
-  <si>
-    <t>udtmgl</t>
-  </si>
-  <si>
-    <t>kimznk</t>
-  </si>
-  <si>
-    <t>thusat</t>
-  </si>
-  <si>
-    <t>citrus</t>
-  </si>
-  <si>
-    <t>amatjk</t>
-  </si>
-  <si>
-    <t>seiga1</t>
-  </si>
-  <si>
-    <t>lapaz</t>
-  </si>
-  <si>
-    <t>moeyos</t>
-  </si>
-  <si>
-    <t>divdrv</t>
-  </si>
-  <si>
-    <t>ksrain</t>
-  </si>
-  <si>
-    <t>hi4kok</t>
-  </si>
-  <si>
-    <t>kobenm</t>
-  </si>
-  <si>
-    <t>dogma1</t>
-  </si>
-  <si>
-    <t>dogma2</t>
-  </si>
-  <si>
-    <t>leciel</t>
-  </si>
-  <si>
-    <t>batimt</t>
-  </si>
-  <si>
-    <t>imskrm</t>
-  </si>
-  <si>
-    <t>godea3</t>
-  </si>
-  <si>
-    <t>asmajo</t>
-  </si>
-  <si>
-    <t>skohab</t>
-  </si>
-  <si>
-    <t>otomuh</t>
-  </si>
-  <si>
-    <t>megm3x</t>
-  </si>
-  <si>
-    <t>kfphon</t>
-  </si>
-  <si>
-    <t>shoujo</t>
-  </si>
-  <si>
-    <t>afterd</t>
-  </si>
-  <si>
-    <t>alones</t>
-  </si>
-  <si>
-    <t>2night</t>
-  </si>
-  <si>
-    <t>1rin</t>
-  </si>
-  <si>
-    <t>bleach</t>
-  </si>
-  <si>
-    <t>jdgekk</t>
-  </si>
-  <si>
-    <t>giniro</t>
-  </si>
-  <si>
-    <t>stairw</t>
+    <t>crtfix</t>
+  </si>
+  <si>
+    <t>THE FIXER</t>
+  </si>
+  <si>
+    <t>「クリティカルベロシティ」より</t>
+  </si>
+  <si>
+    <t>holahy</t>
+  </si>
+  <si>
+    <t>holnnn</t>
+  </si>
+  <si>
+    <t>Ahoy!! 我ら宝鐘海賊団☆</t>
+  </si>
+  <si>
+    <t>ねねねねねねねね!大爆走</t>
+  </si>
+  <si>
+    <t>holsmg</t>
+  </si>
+  <si>
+    <t>holhom</t>
+  </si>
+  <si>
+    <t>hol6po</t>
+  </si>
+  <si>
+    <t>ohdmi2</t>
+  </si>
+  <si>
+    <t>vivivi</t>
   </si>
 </sst>
 </file>
@@ -1030,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A89AA7-337B-4B0E-947D-11A48156C344}">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="12.1" x14ac:dyDescent="0.3"/>
@@ -1104,22 +1035,55 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1134,147 +1098,12 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/conversion_data.xlsx
+++ b/inputs/conversion_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\TaikoNS2Converter\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2FF0C6-F3AC-45F9-B17D-E4EAEE2B2092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B89137-CA7E-49DA-AAF3-ECB9A0F3D11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7442" yWindow="2850" windowWidth="19334" windowHeight="10040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-101" yWindow="-101" windowWidth="25981" windowHeight="13977" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>SONG_ID</t>
   </si>
@@ -79,40 +79,13 @@
     <t>GENRE</t>
   </si>
   <si>
-    <t>crtfix</t>
-  </si>
-  <si>
-    <t>THE FIXER</t>
-  </si>
-  <si>
-    <t>「クリティカルベロシティ」より</t>
-  </si>
-  <si>
-    <t>holahy</t>
-  </si>
-  <si>
-    <t>holnnn</t>
-  </si>
-  <si>
-    <t>Ahoy!! 我ら宝鐘海賊団☆</t>
-  </si>
-  <si>
-    <t>ねねねねねねねね!大爆走</t>
-  </si>
-  <si>
-    <t>holsmg</t>
-  </si>
-  <si>
-    <t>holhom</t>
-  </si>
-  <si>
-    <t>hol6po</t>
-  </si>
-  <si>
-    <t>ohdmi2</t>
-  </si>
-  <si>
-    <t>vivivi</t>
+    <t>clscam</t>
+  </si>
+  <si>
+    <t>crtesc</t>
+  </si>
+  <si>
+    <t>fmod</t>
   </si>
 </sst>
 </file>
@@ -961,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A89AA7-337B-4B0E-947D-11A48156C344}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="12.1" x14ac:dyDescent="0.3"/>
@@ -1038,22 +1011,19 @@
         <v>19</v>
       </c>
       <c r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9</v>
       </c>
       <c r="F2" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1">
         <v>7</v>
       </c>
       <c r="H2" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1">
         <v>4</v>
@@ -1061,49 +1031,48 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/conversion_data.xlsx
+++ b/inputs/conversion_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\TaikoNS2Converter\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B89137-CA7E-49DA-AAF3-ECB9A0F3D11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870713DD-28D7-4273-B5BD-75B51C8D8792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="25981" windowHeight="13977" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>SONG_ID</t>
   </si>
@@ -79,13 +79,7 @@
     <t>GENRE</t>
   </si>
   <si>
-    <t>clscam</t>
-  </si>
-  <si>
-    <t>crtesc</t>
-  </si>
-  <si>
-    <t>fmod</t>
+    <t>batimt</t>
   </si>
 </sst>
 </file>
@@ -934,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A89AA7-337B-4B0E-947D-11A48156C344}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="12.1" x14ac:dyDescent="0.3"/>
@@ -1010,70 +1004,6 @@
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1">
-        <v>6</v>
-      </c>
-      <c r="I4" s="1">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputs/conversion_data.xlsx
+++ b/inputs/conversion_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\TaikoNS2Converter\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870713DD-28D7-4273-B5BD-75B51C8D8792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5706C2-7575-4854-993B-08D07D806AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="25981" windowHeight="13977" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>SONG_ID</t>
   </si>
@@ -79,7 +79,19 @@
     <t>GENRE</t>
   </si>
   <si>
-    <t>batimt</t>
+    <t>badguy</t>
+  </si>
+  <si>
+    <t>mgadh</t>
+  </si>
+  <si>
+    <t>teknow</t>
+  </si>
+  <si>
+    <t>cpyoak</t>
+  </si>
+  <si>
+    <t>dobakb</t>
   </si>
 </sst>
 </file>
@@ -928,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A89AA7-337B-4B0E-947D-11A48156C344}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="12.1" x14ac:dyDescent="0.3"/>
@@ -1005,6 +1017,26 @@
         <v>19</v>
       </c>
     </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/inputs/conversion_data.xlsx
+++ b/inputs/conversion_data.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\TaikoNS2Converter\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5706C2-7575-4854-993B-08D07D806AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB16AD03-31B6-4B2F-980E-96D464644A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="25981" windowHeight="13977" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>SONG_ID</t>
   </si>
@@ -79,19 +90,22 @@
     <t>GENRE</t>
   </si>
   <si>
-    <t>badguy</t>
-  </si>
-  <si>
-    <t>mgadh</t>
-  </si>
-  <si>
-    <t>teknow</t>
-  </si>
-  <si>
-    <t>cpyoak</t>
-  </si>
-  <si>
-    <t>dobakb</t>
+    <t>sw2op</t>
+  </si>
+  <si>
+    <t>まいにちがドンダフル</t>
+  </si>
+  <si>
+    <t>「太鼓の達人 ドンダフルフェスティバル」テーマソング</t>
+  </si>
+  <si>
+    <t>夢うつつカタルシス</t>
+  </si>
+  <si>
+    <t>yumeut</t>
+  </si>
+  <si>
+    <t>大木奏弥(BNSI) feat. 愛原圭織</t>
   </si>
 </sst>
 </file>
@@ -940,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A89AA7-337B-4B0E-947D-11A48156C344}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="12.1" x14ac:dyDescent="0.3"/>
@@ -1016,25 +1030,52 @@
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/conversion_data.xlsx
+++ b/inputs/conversion_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\TaikoNS2Converter\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB16AD03-31B6-4B2F-980E-96D464644A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF031AC-E306-4CF8-B669-538170B21D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="25981" windowHeight="13977" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>SONG_ID</t>
   </si>
@@ -90,22 +90,19 @@
     <t>GENRE</t>
   </si>
   <si>
-    <t>sw2op</t>
-  </si>
-  <si>
-    <t>まいにちがドンダフル</t>
-  </si>
-  <si>
-    <t>「太鼓の達人 ドンダフルフェスティバル」テーマソング</t>
-  </si>
-  <si>
-    <t>夢うつつカタルシス</t>
-  </si>
-  <si>
-    <t>yumeut</t>
-  </si>
-  <si>
-    <t>大木奏弥(BNSI) feat. 愛原圭織</t>
+    <t>tontwi</t>
+  </si>
+  <si>
+    <t>TAIKO-TONGUE-TWISTER</t>
+  </si>
+  <si>
+    <t>Cory Tarrow(BNSI) feat. M.Polak, Avigail D., L.Munoz and Bryan D.</t>
+  </si>
+  <si>
+    <t>ohdsub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Subtitle</t>
   </si>
 </sst>
 </file>
@@ -957,7 +954,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="12.1" x14ac:dyDescent="0.3"/>
@@ -1043,39 +1040,48 @@
         <v>8</v>
       </c>
       <c r="G2" s="1">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1">
         <v>5</v>
-      </c>
-      <c r="H2" s="1">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1">
+      <c r="F3" s="1">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6</v>
-      </c>
       <c r="H3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3560</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5650</v>
+      </c>
+      <c r="M3" s="1">
+        <v>8370</v>
+      </c>
+      <c r="N3" s="1">
+        <v>12780</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/conversion_data.xlsx
+++ b/inputs/conversion_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\TaikoNS2Converter\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF031AC-E306-4CF8-B669-538170B21D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C70F2F-0CCC-40F9-9FFF-23E3D26A50FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-101" yWindow="-101" windowWidth="25981" windowHeight="13977" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13252" yWindow="3736" windowWidth="10322" windowHeight="8690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>SONG_ID</t>
   </si>
@@ -93,16 +93,19 @@
     <t>tontwi</t>
   </si>
   <si>
-    <t>TAIKO-TONGUE-TWISTER</t>
-  </si>
-  <si>
-    <t>Cory Tarrow(BNSI) feat. M.Polak, Avigail D., L.Munoz and Bryan D.</t>
-  </si>
-  <si>
     <t>ohdsub</t>
   </si>
   <si>
-    <t xml:space="preserve">	Subtitle</t>
+    <t>mksskn</t>
+  </si>
+  <si>
+    <t>sw2op</t>
+  </si>
+  <si>
+    <t>vfgbs</t>
+  </si>
+  <si>
+    <t>ohdmi2</t>
   </si>
 </sst>
 </file>
@@ -951,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A89AA7-337B-4B0E-947D-11A48156C344}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="12.1" x14ac:dyDescent="0.3"/>
@@ -1027,61 +1030,30 @@
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3560</v>
-      </c>
-      <c r="L3" s="1">
-        <v>5650</v>
-      </c>
-      <c r="M3" s="1">
-        <v>8370</v>
-      </c>
-      <c r="N3" s="1">
-        <v>12780</v>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/conversion_data.xlsx
+++ b/inputs/conversion_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\TaikoNS2Converter\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\TaikoNS2Converter\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C70F2F-0CCC-40F9-9FFF-23E3D26A50FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB6490C-208B-450E-8FB4-EBA88672190D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13252" yWindow="3736" windowWidth="10322" windowHeight="8690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11168" yWindow="4531" windowWidth="10321" windowHeight="8691" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>SONG_ID</t>
   </si>
@@ -90,22 +90,7 @@
     <t>GENRE</t>
   </si>
   <si>
-    <t>tontwi</t>
-  </si>
-  <si>
-    <t>ohdsub</t>
-  </si>
-  <si>
-    <t>mksskn</t>
-  </si>
-  <si>
-    <t>sw2op</t>
-  </si>
-  <si>
-    <t>vfgbs</t>
-  </si>
-  <si>
-    <t>ohdmi2</t>
+    <t>dogma1</t>
   </si>
 </sst>
 </file>
@@ -954,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A89AA7-337B-4B0E-947D-11A48156C344}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="12.1" x14ac:dyDescent="0.3"/>
@@ -1031,31 +1016,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/inputs/conversion_data.xlsx
+++ b/inputs/conversion_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\TaikoNS2Converter\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB6490C-208B-450E-8FB4-EBA88672190D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822271DD-ABD4-4A9D-8C75-1127A0ED379C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11168" yWindow="4531" windowWidth="10321" windowHeight="8691" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-101" yWindow="-101" windowWidth="25981" windowHeight="13977" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>SONG_ID</t>
   </si>
@@ -90,7 +90,13 @@
     <t>GENRE</t>
   </si>
   <si>
-    <t>dogma1</t>
+    <t>anochu</t>
+  </si>
+  <si>
+    <t>ちゅ、多様性。</t>
+  </si>
+  <si>
+    <t>TVアニメ「チェンソーマン」エンディング・テーマ</t>
   </si>
 </sst>
 </file>
@@ -942,7 +948,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="12.1" x14ac:dyDescent="0.3"/>
@@ -1015,6 +1021,27 @@
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputs/conversion_data.xlsx
+++ b/inputs/conversion_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\TaikoNS2Converter\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822271DD-ABD4-4A9D-8C75-1127A0ED379C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CC679D-84C2-4D94-90F1-6CE0FCAAA827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-101" yWindow="-101" windowWidth="25981" windowHeight="13977" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9900" yWindow="6165" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>SONG_ID</t>
   </si>
@@ -90,13 +90,10 @@
     <t>GENRE</t>
   </si>
   <si>
-    <t>anochu</t>
-  </si>
-  <si>
-    <t>ちゅ、多様性。</t>
-  </si>
-  <si>
-    <t>TVアニメ「チェンソーマン」エンディング・テーマ</t>
+    <t>pkmdkm</t>
+  </si>
+  <si>
+    <t>gdmsen</t>
   </si>
 </sst>
 </file>
@@ -945,20 +942,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A89AA7-337B-4B0E-947D-11A48156C344}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="12.1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.6328125" style="1"/>
-    <col min="5" max="5" width="11.6328125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.6328125" style="1"/>
+    <col min="1" max="4" width="11.5703125" style="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1017,30 +1014,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
